--- a/sid22tool/DID_sheet.xlsx
+++ b/sid22tool/DID_sheet.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -574,11 +574,7 @@
           <t>3A85</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>x</t>
@@ -625,11 +621,7 @@
           <t>3A86</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>x</t>
@@ -858,11 +850,7 @@
           <t>3AE0</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>x</t>
@@ -909,11 +897,7 @@
           <t>3AE0</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>x</t>
@@ -960,11 +944,7 @@
           <t>3AE0</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>x</t>
@@ -1011,11 +991,7 @@
           <t>3AE0</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>x</t>
@@ -1062,11 +1038,7 @@
           <t>3AE0</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>x</t>
@@ -1113,11 +1085,7 @@
           <t>3AE1</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>x</t>
@@ -1188,11 +1156,7 @@
           <t>3AE1</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>x</t>
@@ -1263,11 +1227,7 @@
           <t>3AE1</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>x</t>
@@ -1338,11 +1298,7 @@
           <t>3AE1</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>x</t>
@@ -1413,11 +1369,7 @@
           <t>3AE1</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>x</t>
@@ -1488,11 +1440,7 @@
           <t>3AE2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>x</t>
@@ -1587,11 +1535,7 @@
           <t>3AE2</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>x</t>
@@ -1686,11 +1630,7 @@
           <t>3AE2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>x</t>
@@ -1785,11 +1725,7 @@
           <t>3AE2</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>x</t>
@@ -1884,11 +1820,7 @@
           <t>3AE2</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>x</t>
@@ -1983,11 +1915,7 @@
           <t>3AE3</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>x</t>
@@ -2074,11 +2002,7 @@
           <t>3AE3</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>x</t>
@@ -2165,11 +2089,7 @@
           <t>3AE3</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>x</t>
@@ -2256,11 +2176,7 @@
           <t>3AE3</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>x</t>
@@ -2347,11 +2263,7 @@
           <t>3AE3</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>x</t>
@@ -2438,11 +2350,7 @@
           <t>3AE4</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>x</t>
@@ -2529,11 +2437,7 @@
           <t>3AE4</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>x</t>
@@ -2620,11 +2524,7 @@
           <t>3AE4</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>x</t>
@@ -2711,11 +2611,7 @@
           <t>3AE4</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>x</t>
@@ -2802,11 +2698,7 @@
           <t>3AE4</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>x</t>
@@ -2893,11 +2785,7 @@
           <t>3AE5</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>x</t>
@@ -2944,11 +2832,7 @@
           <t>3AE5</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>x</t>
@@ -2995,11 +2879,7 @@
           <t>3AE5</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>x</t>
@@ -3046,11 +2926,7 @@
           <t>3AE5</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>x</t>
@@ -3097,11 +2973,7 @@
           <t>3AE5</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>x</t>
@@ -3148,11 +3020,7 @@
           <t>3AE6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>x</t>
@@ -3199,11 +3067,7 @@
           <t>3AE6</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>x</t>
@@ -3250,11 +3114,7 @@
           <t>3AE6</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>x</t>
@@ -3301,11 +3161,7 @@
           <t>3AE6</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>x</t>
@@ -3352,11 +3208,7 @@
           <t>3AE6</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>x</t>
@@ -3403,11 +3255,7 @@
           <t>3AE7</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>x</t>
@@ -3454,11 +3302,7 @@
           <t>3AE7</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>x</t>
@@ -3505,11 +3349,7 @@
           <t>3AE7</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>x</t>
@@ -3556,11 +3396,7 @@
           <t>3AE7</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>x</t>
@@ -3607,11 +3443,7 @@
           <t>3AE7</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>x</t>
@@ -3658,11 +3490,7 @@
           <t>3AE8</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>x</t>
@@ -3709,11 +3537,7 @@
           <t>3AE8</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>x</t>
@@ -3760,11 +3584,7 @@
           <t>3AE8</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>x</t>
@@ -3811,11 +3631,7 @@
           <t>3AE8</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>x</t>
@@ -3862,11 +3678,7 @@
           <t>3AE8</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>x</t>
@@ -3913,11 +3725,7 @@
           <t>3AE9</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>x</t>
@@ -3964,11 +3772,7 @@
           <t>3AE9</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>x</t>
@@ -4015,11 +3819,7 @@
           <t>3AE9</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>x</t>
@@ -4066,11 +3866,7 @@
           <t>3AE9</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>x</t>
@@ -4117,11 +3913,7 @@
           <t>3AE9</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>x</t>
@@ -4168,11 +3960,7 @@
           <t>3AEA</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>x</t>
@@ -4219,11 +4007,7 @@
           <t>3AEA</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>x</t>
@@ -4270,11 +4054,7 @@
           <t>3AEA</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>x</t>
@@ -4321,11 +4101,7 @@
           <t>3AEA</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>x</t>
@@ -4372,11 +4148,7 @@
           <t>3AEA</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>x</t>
@@ -4423,11 +4195,7 @@
           <t>3AEB</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>x</t>
@@ -4474,11 +4242,7 @@
           <t>3AEB</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>x</t>
@@ -4525,11 +4289,7 @@
           <t>3AEB</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>x</t>
@@ -4576,11 +4336,7 @@
           <t>3AEB</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>x</t>
@@ -4627,11 +4383,7 @@
           <t>3AEB</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>x</t>
@@ -4678,11 +4430,7 @@
           <t>3AEC</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>x</t>
@@ -4729,11 +4477,7 @@
           <t>3AEC</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>x</t>
@@ -4780,11 +4524,7 @@
           <t>3AEC</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>x</t>
@@ -4831,11 +4571,7 @@
           <t>3AEC</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>x</t>
@@ -4882,11 +4618,7 @@
           <t>3AEC</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>x</t>
@@ -4933,11 +4665,7 @@
           <t>3AED</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>x</t>
@@ -4984,11 +4712,7 @@
           <t>3AED</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>x</t>
@@ -5035,11 +4759,7 @@
           <t>3AED</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>x</t>
@@ -5086,11 +4806,7 @@
           <t>3AED</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>x</t>
@@ -5137,11 +4853,7 @@
           <t>3AED</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>x</t>
@@ -5188,11 +4900,7 @@
           <t>3AEE</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>x</t>
@@ -5239,11 +4947,7 @@
           <t>3AEE</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>x</t>
@@ -5290,11 +4994,7 @@
           <t>3AEE</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>x</t>
@@ -5341,11 +5041,7 @@
           <t>3AEE</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>x</t>
@@ -5392,11 +5088,7 @@
           <t>3AEE</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>x</t>
@@ -5443,11 +5135,7 @@
           <t>3AEF</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>x</t>
@@ -5494,11 +5182,7 @@
           <t>3AEF</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>x</t>
@@ -5545,11 +5229,7 @@
           <t>3AEF</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>x</t>
@@ -5596,11 +5276,7 @@
           <t>3AEF</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>x</t>
@@ -5647,11 +5323,7 @@
           <t>3AEF</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>x</t>
@@ -5698,11 +5370,7 @@
           <t>3AF0</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>x</t>
@@ -5749,11 +5417,7 @@
           <t>3AF0</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>x</t>
@@ -5800,11 +5464,7 @@
           <t>3AF0</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>x</t>
@@ -5851,11 +5511,7 @@
           <t>3AF0</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>x</t>
@@ -5902,11 +5558,7 @@
           <t>3AF0</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>x</t>
@@ -5953,11 +5605,7 @@
           <t>3AF1</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>x</t>
@@ -6004,11 +5652,7 @@
           <t>3AF1</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>x</t>
@@ -6055,11 +5699,7 @@
           <t>3AF1</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>x</t>
@@ -6106,11 +5746,7 @@
           <t>3AF1</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>x</t>
@@ -6157,11 +5793,7 @@
           <t>3AF1</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>x</t>
@@ -6208,11 +5840,7 @@
           <t>3AF2</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>x</t>
@@ -6259,11 +5887,7 @@
           <t>3AF2</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>x</t>
@@ -6310,11 +5934,7 @@
           <t>3AF2</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>x</t>
@@ -6361,11 +5981,7 @@
           <t>3AF2</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>x</t>
@@ -6412,11 +6028,7 @@
           <t>3AF2</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>x</t>
@@ -6463,11 +6075,7 @@
           <t>3AF3</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>x</t>
@@ -6514,11 +6122,7 @@
           <t>3AF3</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>x</t>
@@ -6565,11 +6169,7 @@
           <t>3AF3</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>x</t>
@@ -6616,11 +6216,7 @@
           <t>3AF3</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>x</t>
@@ -6667,11 +6263,7 @@
           <t>3AF3</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>x</t>
@@ -6718,11 +6310,7 @@
           <t>3AF4</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>x</t>
@@ -6769,11 +6357,7 @@
           <t>3AF4</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>x</t>
@@ -6820,11 +6404,7 @@
           <t>3AF4</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>x</t>
@@ -6871,11 +6451,7 @@
           <t>3AF4</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>x</t>
@@ -6922,11 +6498,7 @@
           <t>3AF4</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>x</t>
@@ -6973,11 +6545,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>x</t>
@@ -7024,11 +6592,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>x</t>
@@ -7075,11 +6639,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>x</t>
@@ -7126,11 +6686,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>x</t>
@@ -7177,11 +6733,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>x</t>
@@ -7228,11 +6780,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>x</t>
@@ -7279,11 +6827,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>x</t>
@@ -7330,11 +6874,7 @@
           <t>3BCC</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>x</t>
@@ -7381,11 +6921,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>x</t>
@@ -7432,11 +6968,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>x</t>
@@ -7483,11 +7015,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>x</t>
@@ -7534,11 +7062,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>x</t>
@@ -7585,11 +7109,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>x</t>
@@ -7636,11 +7156,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>x</t>
@@ -7687,11 +7203,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>x</t>
@@ -7738,11 +7250,7 @@
           <t>3BCD</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>x</t>
@@ -7789,11 +7297,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>x</t>
@@ -7840,11 +7344,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>x</t>
@@ -7891,11 +7391,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>x</t>
@@ -7942,11 +7438,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
           <t>x</t>
@@ -7993,11 +7485,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>x</t>
@@ -8044,11 +7532,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
           <t>x</t>
@@ -8095,11 +7579,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>x</t>
@@ -8146,11 +7626,7 @@
           <t>3BCE</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>x</t>
@@ -8197,11 +7673,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
           <t>x</t>
@@ -8288,11 +7760,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>x</t>
@@ -8379,11 +7847,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>x</t>
@@ -8470,11 +7934,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
           <t>x</t>
@@ -8561,11 +8021,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>x</t>
@@ -8652,11 +8108,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>x</t>
@@ -8743,11 +8195,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>x</t>
@@ -8834,11 +8282,7 @@
           <t>3BCF</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>x</t>
@@ -9342,7 +8786,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -9425,7 +8869,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -9508,7 +8952,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -10006,7 +9450,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -10089,7 +9533,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -10172,7 +9616,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -10670,7 +10114,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10753,7 +10197,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10836,7 +10280,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -11334,7 +10778,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -11417,7 +10861,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -11500,7 +10944,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -11998,7 +11442,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -12081,7 +11525,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -12164,7 +11608,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -12662,7 +12106,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -12745,7 +12189,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -12828,7 +12272,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -12909,11 +12353,7 @@
           <t>3B60</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>x</t>
@@ -12992,11 +12432,7 @@
           <t>3B61</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
           <t>x</t>
